--- a/overlay.xlsx
+++ b/overlay.xlsx
@@ -19,6 +19,18 @@
     <t>Images_Two</t>
   </si>
   <si>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bench-after.jpg</t>
+  </si>
+  <si>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bench-before.jpg</t>
+  </si>
+  <si>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bin-after.jpg</t>
+  </si>
+  <si>
+    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bin-before.jpg</t>
+  </si>
+  <si>
     <t>https://candid.s3.ap-southeast-2.amazonaws.com/bathroom-after.jpg</t>
   </si>
   <si>
@@ -29,18 +41,6 @@
   </si>
   <si>
     <t>https://candid.s3.ap-southeast-2.amazonaws.com/office-before.jpg</t>
-  </si>
-  <si>
-    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bin-after.jpg</t>
-  </si>
-  <si>
-    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bin-before.jpg</t>
-  </si>
-  <si>
-    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bench-after.jpg</t>
-  </si>
-  <si>
-    <t>https://candid.s3.ap-southeast-2.amazonaws.com/bench-before.jpg</t>
   </si>
 </sst>
 </file>
@@ -61,11 +61,11 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,10 +90,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,18 +335,18 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
